--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,7 +40,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
@@ -49,42 +49,24 @@
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>chaos</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
@@ -94,58 +76,52 @@
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
@@ -157,127 +133,127 @@
     <t>ensure</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>creative</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>hope</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -635,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -754,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -804,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.92</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,31 +948,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>117</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <v>18</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.96875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7207792207792207</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.9166666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1104,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,31 +1148,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>4</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L12">
-        <v>45</v>
-      </c>
-      <c r="M12">
-        <v>45</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5833333333333334</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5333333333333333</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>405</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8518518518518519</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.8392857142857143</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L15">
         <v>47</v>
@@ -1346,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4736842105263158</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3333333333333333</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,419 +1398,227 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.825</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L17">
+        <v>19</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L18">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <v>28</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.7421875</v>
+      </c>
+      <c r="L20">
+        <v>95</v>
+      </c>
+      <c r="M20">
+        <v>95</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>33</v>
       </c>
-      <c r="M17">
-        <v>33</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>9</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19">
-        <v>0.8125</v>
-      </c>
-      <c r="L19">
-        <v>13</v>
-      </c>
-      <c r="M19">
-        <v>13</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.3175965665236051</v>
-      </c>
-      <c r="C20">
-        <v>74</v>
-      </c>
-      <c r="D20">
-        <v>74</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>159</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>0.7962962962962963</v>
-      </c>
-      <c r="L20">
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M20">
-        <v>43</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2758620689655172</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>21</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L21">
+      <c r="K22">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="L22">
+        <v>102</v>
+      </c>
+      <c r="M22">
+        <v>102</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L23">
+        <v>75</v>
+      </c>
+      <c r="M23">
+        <v>75</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L24">
+        <v>36</v>
+      </c>
+      <c r="M24">
+        <v>36</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M21">
-        <v>46</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C22">
-        <v>23</v>
-      </c>
-      <c r="D22">
-        <v>23</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>63</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.25</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>60</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L23">
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1521739130434783</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>39</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="C25">
+      <c r="K25">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L25">
         <v>16</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>16</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>94</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L25">
-        <v>22</v>
-      </c>
-      <c r="M25">
-        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1850,41 +1634,17 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.04301075268817205</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>178</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.7450980392156863</v>
+        <v>0.65625</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.72</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1922,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.7058823529411765</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1948,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.684931506849315</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1974,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2000,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.6538461538461539</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2026,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.6363636363636364</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2052,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.5833333333333334</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2078,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.5833333333333334</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2104,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.5789473684210527</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2130,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.5666666666666667</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2156,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2182,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.55</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2208,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5138888888888888</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L39">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="M39">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2234,21 +1994,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>70</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5116279069767442</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L40">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2260,21 +2020,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.5070422535211268</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L41">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2286,21 +2046,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.4891304347826087</v>
+        <v>0.4</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2312,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.4857142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2338,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.4583333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2364,21 +2124,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.45</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="L45">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2390,21 +2150,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2416,21 +2176,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.4117647058823529</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2442,21 +2202,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="L48">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2468,21 +2228,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K49">
         <v>0.3125</v>
       </c>
       <c r="L49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2494,21 +2254,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.2916666666666667</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2520,21 +2280,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.2432432432432433</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2546,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>28</v>
+        <v>847</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.2368421052631579</v>
+        <v>0.05023923444976076</v>
       </c>
       <c r="L52">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2572,21 +2332,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>29</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K53">
-        <v>0.04390243902439024</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2598,21 +2358,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K54">
-        <v>0.02347417840375587</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2624,21 +2384,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>416</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K55">
-        <v>0.01801801801801802</v>
+        <v>0.02</v>
       </c>
       <c r="L55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2650,59 +2410,85 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>436</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K56">
-        <v>0.01157613535173642</v>
+        <v>0.01308411214953271</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>1110</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K57">
-        <v>0.008333333333333333</v>
+        <v>0.01128668171557562</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N57">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="O57">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1547</v>
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58">
+        <v>0.006572769953051643</v>
+      </c>
+      <c r="L58">
+        <v>21</v>
+      </c>
+      <c r="M58">
+        <v>27</v>
+      </c>
+      <c r="N58">
+        <v>0.78</v>
+      </c>
+      <c r="O58">
+        <v>0.22</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3174</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,40 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>risk</t>
   </si>
   <si>
     <t>low</t>
@@ -88,100 +85,106 @@
     <t>negative</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>boost</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>well</t>
+    <t>dear</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
@@ -190,31 +193,19 @@
     <t>care</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -223,28 +214,31 @@
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -611,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,16 +795,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9545454545454546</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -830,37 +824,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7222222222222222</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="C6">
+        <v>188</v>
+      </c>
+      <c r="D6">
+        <v>188</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>104</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6538461538461539</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5993150684931506</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8947368421052632</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5862068965517241</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,31 +1042,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L10">
+        <v>96</v>
+      </c>
+      <c r="M10">
+        <v>96</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>16</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="L10">
-        <v>13</v>
-      </c>
-      <c r="M10">
-        <v>13</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3421052631578947</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3333333333333333</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>414</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8461538461538461</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
         <v>22</v>
@@ -1172,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2266666666666667</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8392857142857143</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2151162790697674</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C14">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>405</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.8292682926829268</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1798941798941799</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.8103448275862069</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,7 +1324,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1208053691275168</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -1348,355 +1342,331 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7734375</v>
+      </c>
+      <c r="L16">
+        <v>99</v>
+      </c>
+      <c r="M16">
+        <v>99</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K16">
-        <v>0.8</v>
-      </c>
-      <c r="L16">
-        <v>96</v>
-      </c>
-      <c r="M16">
-        <v>96</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.0992063492063492</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>227</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="L17">
+        <v>109</v>
+      </c>
+      <c r="M17">
+        <v>109</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K17">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L17">
+      <c r="K18">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L18">
+        <v>38</v>
+      </c>
+      <c r="M18">
+        <v>38</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L19">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L20">
         <v>19</v>
       </c>
-      <c r="M17">
+      <c r="M20">
         <v>19</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="L21">
+        <v>74</v>
+      </c>
+      <c r="M21">
+        <v>74</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.675</v>
+      </c>
+      <c r="L22">
+        <v>108</v>
+      </c>
+      <c r="M22">
+        <v>108</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.675</v>
+      </c>
+      <c r="L23">
+        <v>81</v>
+      </c>
+      <c r="M23">
+        <v>81</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>39</v>
       </c>
-      <c r="K18">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L18">
-        <v>28</v>
-      </c>
-      <c r="M18">
-        <v>28</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L24">
+        <v>15</v>
+      </c>
+      <c r="M24">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.75</v>
-      </c>
-      <c r="L19">
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L25">
+        <v>18</v>
+      </c>
+      <c r="M25">
+        <v>18</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.64</v>
+      </c>
+      <c r="L26">
+        <v>32</v>
+      </c>
+      <c r="M26">
+        <v>32</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L28">
         <v>21</v>
       </c>
-      <c r="M19">
+      <c r="M28">
         <v>21</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.7421875</v>
-      </c>
-      <c r="L20">
-        <v>95</v>
-      </c>
-      <c r="M20">
-        <v>95</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.7183098591549296</v>
-      </c>
-      <c r="L22">
-        <v>102</v>
-      </c>
-      <c r="M22">
-        <v>102</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.7075471698113207</v>
-      </c>
-      <c r="L23">
-        <v>75</v>
-      </c>
-      <c r="M23">
-        <v>75</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L24">
-        <v>36</v>
-      </c>
-      <c r="M24">
-        <v>36</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="L25">
-        <v>16</v>
-      </c>
-      <c r="M25">
-        <v>16</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26">
-        <v>0.65625</v>
-      </c>
-      <c r="L26">
-        <v>105</v>
-      </c>
-      <c r="M26">
-        <v>105</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27">
-        <v>0.6507936507936508</v>
-      </c>
-      <c r="L27">
-        <v>41</v>
-      </c>
-      <c r="M27">
-        <v>41</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="L28">
-        <v>23</v>
-      </c>
-      <c r="M28">
-        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1711,96 +1681,96 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L29">
+        <v>57</v>
+      </c>
+      <c r="M29">
+        <v>57</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K29">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="L29">
-        <v>29</v>
-      </c>
-      <c r="M29">
-        <v>29</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
+      <c r="K30">
+        <v>0.575</v>
+      </c>
+      <c r="L30">
+        <v>23</v>
+      </c>
+      <c r="M30">
+        <v>23</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K30">
-        <v>0.6</v>
-      </c>
-      <c r="L30">
-        <v>30</v>
-      </c>
-      <c r="M30">
-        <v>30</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
+      <c r="K31">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L31">
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K31">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L31">
-        <v>16</v>
-      </c>
-      <c r="M31">
-        <v>16</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K32">
-        <v>0.5531914893617021</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L32">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1812,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.5143603133159269</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L33">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1838,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.5106382978723404</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1864,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.5058823529411764</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L35">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M35">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1890,47 +1860,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.5056179775280899</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1942,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1968,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.4440677966101695</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L39">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1994,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>164</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.4242424242424243</v>
+        <v>0.425</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2020,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.410958904109589</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2046,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.4</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2072,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.4</v>
+        <v>0.390625</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2103,16 +2073,16 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.4</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2124,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.3953488372093023</v>
+        <v>0.3221757322175732</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2150,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>26</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.3846153846153846</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2176,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.3723849372384937</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L47">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2202,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>150</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.35</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2228,47 +2198,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.3125</v>
+        <v>0.05060240963855422</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>44</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.2142857142857143</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2280,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>55</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.05257270693512305</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="L51">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2306,21 +2276,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>847</v>
+        <v>861</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.05023923444976076</v>
+        <v>0.03440621531631521</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2332,47 +2302,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>397</v>
+        <v>870</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.04567307692307692</v>
+        <v>0.02311248073959938</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>397</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.02996670366259711</v>
+        <v>0.01845444059976932</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2384,111 +2354,85 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>874</v>
+        <v>851</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.02</v>
+        <v>0.01449953227315248</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>637</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.01308411214953271</v>
+        <v>0.009351821992905514</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N56">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="O56">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2112</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.01128668171557562</v>
+        <v>0.007509386733416771</v>
       </c>
       <c r="L57">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N57">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="O57">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K58">
-        <v>0.006572769953051643</v>
-      </c>
-      <c r="L58">
-        <v>21</v>
-      </c>
-      <c r="M58">
-        <v>27</v>
-      </c>
-      <c r="N58">
-        <v>0.78</v>
-      </c>
-      <c r="O58">
-        <v>0.22</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>3174</v>
+        <v>3172</v>
       </c>
     </row>
   </sheetData>
